--- a/dtpu_configurations/only_integer16/30mhz/mxu_3x3/timing.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_3x3/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>21.136751174926758</v>
+        <v>15.9653959274292</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.017495449632406235</v>
+        <v>0.017686963081359863</v>
       </c>
     </row>
   </sheetData>
